--- a/IPL/Data/exp/pstats_v01_wo_tags_Gujarat Titans.xlsx
+++ b/IPL/Data/exp/pstats_v01_wo_tags_Gujarat Titans.xlsx
@@ -768,158 +768,172 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A Manohar</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
+          <t>Mohammed Shami</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>210</v>
+      </c>
+      <c r="S2" t="n">
+        <v>233</v>
+      </c>
+      <c r="T2" t="n">
+        <v>25</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>8</v>
+      </c>
+      <c r="W2" t="n">
+        <v>139</v>
+      </c>
+      <c r="X2" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y2" t="n">
         <v>80</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>64</v>
-      </c>
-      <c r="I2" t="n">
-        <v>60</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>48</v>
-      </c>
-      <c r="L2" t="n">
-        <v>23</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Gujarat Titans</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>A Manohar</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="n">
-        <v>14</v>
-      </c>
+      <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ2" t="n">
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>Gujarat Titans</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Mohammed Shami</t>
+        </is>
+      </c>
+      <c r="AP2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>3</v>
       </c>
-      <c r="AK2" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>57</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>43</v>
-      </c>
+      <c r="AR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD2" t="inlineStr"/>
-      <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="inlineStr"/>
-      <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="inlineStr"/>
-      <c r="BI2" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>71</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>23</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>71</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>29</v>
+      </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BK2" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="BL2" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="BM2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -929,12 +943,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AS Joseph</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>Rashid Khan</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -955,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -976,49 +992,65 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="S3" t="n">
-        <v>162</v>
+        <v>306</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W3" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="X3" t="n">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="Y3" t="n">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Gujarat Titans</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Rashid Khan</t>
+        </is>
+      </c>
+      <c r="AE3" t="n">
+        <v>10</v>
+      </c>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
+      <c r="AI3" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AK3" t="n">
+        <v>2</v>
+      </c>
       <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
+      <c r="AM3" t="n">
+        <v>3</v>
+      </c>
       <c r="AN3" t="inlineStr">
         <is>
           <t>Gujarat Titans</t>
@@ -1026,66 +1058,80 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>AS Joseph</t>
+          <t>Rashid Khan</t>
         </is>
       </c>
       <c r="AP3" t="n">
         <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS3" t="n">
         <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>100</v>
+      </c>
       <c r="BB3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BC3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BD3" t="n">
         <v>11</v>
       </c>
       <c r="BE3" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="BF3" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="BG3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BH3" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BI3" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="BJ3" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BK3" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="BL3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM3" t="n">
-        <v>1.473684210526316</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="4">
@@ -1096,53 +1142,53 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B Sai Sudharsan</t>
+          <t>Shubman Gill</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>141</v>
+        <v>240</v>
       </c>
       <c r="E4" t="n">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="F4" t="n">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="I4" t="n">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="O4" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1184,28 +1230,36 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>B Sai Sudharsan</t>
+          <t>Shubman Gill</t>
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="AF4" t="n">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="AI4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>56</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>49</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>6</v>
+      </c>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
@@ -1218,19 +1272,19 @@
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="inlineStr"/>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="AZ4" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="BA4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BB4" t="n">
-        <v>176</v>
+        <v>339</v>
       </c>
       <c r="BC4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BD4" t="inlineStr"/>
       <c r="BE4" t="inlineStr"/>
@@ -1245,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>35.2</v>
+        <v>38</v>
       </c>
       <c r="BM4" t="inlineStr"/>
     </row>
@@ -1257,44 +1311,44 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DA Miller</t>
+          <t>WP Saha</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="I5" t="n">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1345,30 +1399,32 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>DA Miller</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr"/>
+          <t>WP Saha</t>
+        </is>
+      </c>
+      <c r="AE5" t="n">
+        <v>25</v>
+      </c>
       <c r="AF5" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AI5" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="AK5" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
@@ -1385,19 +1441,19 @@
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="inlineStr"/>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="AZ5" t="n">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="BA5" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD5" t="inlineStr"/>
       <c r="BE5" t="inlineStr"/>
@@ -1412,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>22.5</v>
+        <v>17</v>
       </c>
       <c r="BM5" t="inlineStr"/>
     </row>
@@ -1424,80 +1480,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HH Pandya</t>
+          <t>DA Miller</t>
         </is>
       </c>
       <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>122</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>97</v>
+      </c>
+      <c r="I6" t="n">
+        <v>66</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>83</v>
+      </c>
+      <c r="L6" t="n">
+        <v>59</v>
+      </c>
+      <c r="M6" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
-        <v>181</v>
-      </c>
-      <c r="E6" t="n">
-        <v>48</v>
-      </c>
-      <c r="F6" t="n">
-        <v>48</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>125</v>
-      </c>
-      <c r="I6" t="n">
-        <v>112</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>40</v>
-      </c>
-      <c r="L6" t="n">
-        <v>23</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="O6" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R6" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -1512,112 +1568,76 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>HH Pandya</t>
-        </is>
-      </c>
-      <c r="AE6" t="n">
-        <v>8</v>
-      </c>
+          <t>DA Miller</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG6" t="inlineStr"/>
+        <v>31</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>2</v>
+      </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="AJ6" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="AK6" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>59</v>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>Gujarat Titans</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>HH Pandya</t>
-        </is>
-      </c>
-      <c r="AP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="BA6" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="BB6" t="n">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="BC6" t="n">
         <v>8</v>
       </c>
-      <c r="BD6" t="n">
-        <v>59</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>41</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>100</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>0</v>
-      </c>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
       <c r="BJ6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>26.625</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>0.7058823529411765</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="BM6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1627,45 +1647,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>J Little</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>HH Pandya</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1674,120 +1696,150 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="S7" t="n">
-        <v>208</v>
+        <v>129</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
       </c>
       <c r="U7" t="n">
+        <v>7</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>77</v>
+      </c>
+      <c r="X7" t="n">
+        <v>52</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Gujarat Titans</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>HH Pandya</t>
+        </is>
+      </c>
+      <c r="AE7" t="n">
         <v>8</v>
       </c>
-      <c r="V7" t="n">
-        <v>7</v>
-      </c>
-      <c r="W7" t="n">
-        <v>71</v>
-      </c>
-      <c r="X7" t="n">
-        <v>62</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AF7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>66</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>59</v>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>Gujarat Titans</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>HH Pandya</t>
+        </is>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>59</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>213</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>59</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
         <v>3</v>
       </c>
-      <c r="AB7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>Gujarat Titans</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>J Little</t>
-        </is>
-      </c>
-      <c r="AP7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
-      <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>40</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>32</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>28</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>29</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>43</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>29</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>7</v>
-      </c>
       <c r="BK7" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BM7" t="n">
-        <v>1.12</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8">
@@ -1798,7 +1850,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>J Yadav</t>
+          <t>J Little</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1845,37 +1897,37 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="S8" t="n">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="T8" t="n">
+        <v>10</v>
+      </c>
+      <c r="U8" t="n">
+        <v>8</v>
+      </c>
+      <c r="V8" t="n">
+        <v>7</v>
+      </c>
+      <c r="W8" t="n">
+        <v>71</v>
+      </c>
+      <c r="X8" t="n">
+        <v>62</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z8" t="n">
         <v>2</v>
       </c>
-      <c r="U8" t="n">
+      <c r="AA8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB8" t="n">
         <v>2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>16</v>
-      </c>
-      <c r="X8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
       </c>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
@@ -1895,20 +1947,32 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>J Yadav</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
+          <t>J Little</t>
+        </is>
+      </c>
+      <c r="AP8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>3</v>
+      </c>
       <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="inlineStr"/>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
       <c r="AY8" t="inlineStr"/>
       <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="inlineStr"/>
@@ -1916,31 +1980,37 @@
         <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BD8" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BE8" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG8" t="inlineStr"/>
-      <c r="BH8" t="inlineStr"/>
-      <c r="BI8" t="inlineStr"/>
+        <v>28</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>29</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>43</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>29</v>
+      </c>
       <c r="BJ8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BK8" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="BL8" t="n">
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="9">
@@ -1951,45 +2021,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MM Sharma</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>V Shankar</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1998,119 +2070,113 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Gujarat Titans</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>V Shankar</t>
+        </is>
+      </c>
+      <c r="AE9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>63</v>
+      </c>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>Gujarat Titans</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>MM Sharma</t>
-        </is>
-      </c>
+      <c r="AJ9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV9" t="n">
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="n">
         <v>3</v>
       </c>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
-      <c r="BA9" t="inlineStr"/>
+      <c r="AZ9" t="n">
+        <v>55</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>42</v>
+      </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="BC9" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>56</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>39</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>18</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>82</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
       <c r="BJ9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>2.444444444444445</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="BM9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2120,7 +2186,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mohammed Shami</t>
+          <t>MM Sharma</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -2167,37 +2233,37 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c r="S10" t="n">
-        <v>233</v>
+        <v>125</v>
       </c>
       <c r="T10" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
+        <v>10</v>
+      </c>
+      <c r="V10" t="n">
+        <v>7</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7</v>
+      </c>
+      <c r="X10" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
         <v>2</v>
       </c>
-      <c r="V10" t="n">
-        <v>8</v>
-      </c>
-      <c r="W10" t="n">
-        <v>139</v>
-      </c>
-      <c r="X10" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
       <c r="AB10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
@@ -2217,35 +2283,29 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Mohammed Shami</t>
-        </is>
-      </c>
-      <c r="AP10" t="n">
+          <t>MM Sharma</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="n">
         <v>2</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV10" t="n">
         <v>3</v>
       </c>
-      <c r="AR10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>0</v>
-      </c>
       <c r="AW10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY10" t="inlineStr"/>
       <c r="AZ10" t="inlineStr"/>
@@ -2254,37 +2314,37 @@
         <v>0</v>
       </c>
       <c r="BC10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BD10" t="n">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="BE10" t="n">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="BF10" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="BG10" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="BH10" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BI10" t="n">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="BJ10" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BK10" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="BL10" t="n">
         <v>0</v>
       </c>
       <c r="BM10" t="n">
-        <v>1.942857142857143</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="11">
@@ -2295,12 +2355,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Noor Ahmad</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>R Tewatia</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
+      </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2312,22 +2374,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -2342,49 +2404,69 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="S11" t="n">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Gujarat Titans</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>R Tewatia</t>
+        </is>
+      </c>
+      <c r="AE11" t="n">
         <v>15</v>
       </c>
-      <c r="V11" t="n">
-        <v>4</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>97</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AH11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>20</v>
+      </c>
       <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
+      <c r="AM11" t="n">
+        <v>20</v>
+      </c>
       <c r="AN11" t="inlineStr">
         <is>
           <t>Gujarat Titans</t>
@@ -2392,66 +2474,58 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Noor Ahmad</t>
+          <t>R Tewatia</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="n">
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>98</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>63</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" t="n">
         <v>1</v>
       </c>
-      <c r="AU11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>79</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>21</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>75</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>25</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>8</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>19</v>
-      </c>
       <c r="BL11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BM11" t="n">
-        <v>1.684210526315789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2462,14 +2536,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R Tewatia</t>
+          <t>A Manohar</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -2481,25 +2555,25 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="I12" t="n">
+        <v>60</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>48</v>
+      </c>
+      <c r="L12" t="n">
+        <v>23</v>
+      </c>
+      <c r="M12" t="n">
         <v>3</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>62</v>
-      </c>
-      <c r="L12" t="n">
-        <v>30</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -2511,16 +2585,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2529,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -2550,48 +2624,36 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>R Tewatia</t>
-        </is>
-      </c>
-      <c r="AE12" t="n">
-        <v>15</v>
-      </c>
+          <t>A Manohar</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="n">
-        <v>5</v>
-      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>Gujarat Titans</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>R Tewatia</t>
-        </is>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
       <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="inlineStr"/>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="inlineStr"/>
@@ -2599,26 +2661,20 @@
         <v>0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="BA12" t="n">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="BB12" t="n">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="BC12" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>100</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="inlineStr"/>
       <c r="BG12" t="inlineStr"/>
       <c r="BH12" t="inlineStr"/>
       <c r="BI12" t="inlineStr"/>
@@ -2626,14 +2682,12 @@
         <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="BM12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2643,14 +2697,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Rashid Khan</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>7</v>
-      </c>
+          <t>AS Joseph</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2671,13 +2723,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2692,65 +2744,49 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="S13" t="n">
-        <v>306</v>
+        <v>162</v>
       </c>
       <c r="T13" t="n">
+        <v>2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>15</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2</v>
+      </c>
+      <c r="W13" t="n">
+        <v>15</v>
+      </c>
+      <c r="X13" t="n">
+        <v>133</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
         <v>4</v>
       </c>
-      <c r="U13" t="n">
-        <v>25</v>
-      </c>
-      <c r="V13" t="n">
-        <v>7</v>
-      </c>
-      <c r="W13" t="n">
-        <v>38</v>
-      </c>
-      <c r="X13" t="n">
-        <v>206</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>62</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>8</v>
-      </c>
       <c r="AB13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Gujarat Titans</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>Rashid Khan</t>
-        </is>
-      </c>
-      <c r="AE13" t="n">
-        <v>10</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="n">
-        <v>2</v>
-      </c>
+      <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="n">
-        <v>3</v>
-      </c>
+      <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr">
         <is>
           <t>Gujarat Titans</t>
@@ -2758,80 +2794,66 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Rashid Khan</t>
+          <t>AS Joseph</t>
         </is>
       </c>
       <c r="AP13" t="n">
         <v>2</v>
       </c>
       <c r="AQ13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS13" t="n">
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr"/>
       <c r="BB13" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BD13" t="n">
         <v>11</v>
       </c>
       <c r="BE13" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="BF13" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>57</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>43</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK13" t="n">
         <v>19</v>
       </c>
-      <c r="BG13" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>53</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>40</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>15</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>36</v>
-      </c>
       <c r="BL13" t="n">
-        <v>1.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>1.666666666666667</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14">
@@ -2842,53 +2864,53 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Shubman Gill</t>
+          <t>B Sai Sudharsan</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="E14" t="n">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="F14" t="n">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="I14" t="n">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L14" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2930,36 +2952,28 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>Shubman Gill</t>
+          <t>B Sai Sudharsan</t>
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="AF14" t="n">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="AG14" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="AH14" t="n">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>45</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>56</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>49</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>6</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="inlineStr"/>
@@ -2972,19 +2986,19 @@
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="inlineStr"/>
       <c r="AY14" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="AZ14" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="BA14" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BB14" t="n">
-        <v>339</v>
+        <v>176</v>
       </c>
       <c r="BC14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BD14" t="inlineStr"/>
       <c r="BE14" t="inlineStr"/>
@@ -2999,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>37.66666666666666</v>
+        <v>35</v>
       </c>
       <c r="BM14" t="inlineStr"/>
     </row>
@@ -3011,162 +3025,164 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>V Shankar</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>Noor Ahmad</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>110</v>
+      </c>
+      <c r="S15" t="n">
+        <v>121</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>15</v>
+      </c>
+      <c r="V15" t="n">
         <v>4</v>
       </c>
-      <c r="D15" t="n">
-        <v>128</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>97</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
         <v>6</v>
       </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>112</v>
-      </c>
-      <c r="I15" t="n">
-        <v>95</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>87</v>
-      </c>
-      <c r="L15" t="n">
-        <v>31</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>8</v>
-      </c>
-      <c r="O15" t="n">
-        <v>16</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
       <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Gujarat Titans</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>V Shankar</t>
-        </is>
-      </c>
-      <c r="AE15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>63</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="inlineStr"/>
       <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>Gujarat Titans</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Noor Ahmad</t>
+        </is>
+      </c>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="n">
+      <c r="AT15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV15" t="n">
         <v>3</v>
       </c>
-      <c r="AZ15" t="n">
-        <v>55</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>42</v>
-      </c>
+      <c r="AW15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
       <c r="BB15" t="n">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD15" t="inlineStr"/>
-      <c r="BE15" t="inlineStr"/>
-      <c r="BF15" t="inlineStr"/>
-      <c r="BG15" t="inlineStr"/>
-      <c r="BH15" t="inlineStr"/>
-      <c r="BI15" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>79</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>21</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>75</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>25</v>
+      </c>
       <c r="BJ15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BK15" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="BL15" t="n">
-        <v>29.28571428571428</v>
-      </c>
-      <c r="BM15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3176,77 +3192,75 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WP Saha</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>Yash Dayal</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>36</v>
+      </c>
+      <c r="S16" t="n">
+        <v>95</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="n">
-        <v>121</v>
-      </c>
-      <c r="E16" t="n">
-        <v>138</v>
-      </c>
-      <c r="F16" t="n">
-        <v>114</v>
-      </c>
-      <c r="G16" t="n">
-        <v>8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>13</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>8</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
@@ -3257,72 +3271,60 @@
       <c r="AB16" t="n">
         <v>0</v>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
         <is>
           <t>Gujarat Titans</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>WP Saha</t>
-        </is>
-      </c>
-      <c r="AE16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>47</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Yash Dayal</t>
+        </is>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
       <c r="AS16" t="inlineStr"/>
       <c r="AT16" t="inlineStr"/>
       <c r="AU16" t="inlineStr"/>
       <c r="AV16" t="inlineStr"/>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="n">
-        <v>91</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>0</v>
-      </c>
+      <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr"/>
       <c r="BB16" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="BC16" t="n">
-        <v>9</v>
-      </c>
-      <c r="BD16" t="inlineStr"/>
-      <c r="BE16" t="inlineStr"/>
-      <c r="BF16" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>83</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>17</v>
+      </c>
       <c r="BG16" t="inlineStr"/>
       <c r="BH16" t="inlineStr"/>
       <c r="BI16" t="inlineStr"/>
@@ -3330,12 +3332,14 @@
         <v>0</v>
       </c>
       <c r="BK16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BL16" t="n">
-        <v>16.77777777777778</v>
-      </c>
-      <c r="BM16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3345,7 +3349,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Yash Dayal</t>
+          <t>J Yadav</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -3392,28 +3396,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="S17" t="n">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="X17" t="n">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="Y17" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -3442,21 +3446,17 @@
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>Yash Dayal</t>
-        </is>
-      </c>
-      <c r="AP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
+          <t>J Yadav</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
       <c r="AT17" t="inlineStr"/>
-      <c r="AU17" t="inlineStr"/>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
       <c r="AV17" t="inlineStr"/>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="inlineStr"/>
@@ -3467,16 +3467,16 @@
         <v>0</v>
       </c>
       <c r="BC17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD17" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BE17" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="BF17" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BG17" t="inlineStr"/>
       <c r="BH17" t="inlineStr"/>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="BK17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BL17" t="n">
         <v>0</v>
